--- a/Reports/Bug report.xlsx
+++ b/Reports/Bug report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambio-my.sharepoint.com/personal/sunimali_priyashanthi_cambio_lk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seleniumtest\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{3DF7F93E-F5DC-48DB-826E-1BC0D1345690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7743130C-7BE3-4556-89E6-90CC38108E90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B94838-E828-497D-BDEE-7785B950E149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0073164-524B-436D-892D-8468EEF217A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
   <si>
     <t>Description:</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>User should not be able to mark an article as favourite and that information should be saved in the db</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Major</t>
   </si>
 </sst>
 </file>
@@ -714,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2F7F17-D6CE-415E-A5D2-C9B2614F4A8D}">
   <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
